--- a/big-data/big-data-capstone/project/data/beer_n_Desperados Lime.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Desperados Lime.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IPALegion55(1,294)
+          <t>IPALegion55(1,301)
 🇵🇱Szczecin, Poland
 2.2August 20, 2022
 Limonkowe, słodkie, ladnrynkowe, zachodzące na sztuczne w zapachu.
@@ -637,7 +637,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>zvsn(7,780)
+          <t>zvsn(7,795)
 🇮🇱Israel
 2.2August 7, 2022
 Bottle at a tasting, many thanks avrashi! Clear yellow. Skunk, sage, soap, vegetal aromas. Very sweet, ginger, artificial lemon, vegetables, corn, tequila. Light-bodied, watery.
@@ -706,7 +706,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>franclh(4,817)
+          <t>franclh(4,826)
 🇳🇱Dedemsvaart, Netherlands
 2.5July 3, 2022
 Fles 33cl thuis gedeeld. Fris, zoet, lemon, grainy, sinas, cactus, grassig. (3-7-2022).
@@ -848,7 +848,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SVD(5,169)
+          <t>SVD(5,173)
 🇳🇱Nijmegen, Netherlands
 2.5May 21, 2022
 Can at home, golden colour, no head. Aroma is sweet, lime, and a tiny hint of cactus and that is it. Taste is hint of beer, some lime, some cactus and tequila maybe. meh
@@ -917,7 +917,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zlotta(8,030)
+          <t>Zlotta(8,037)
 🇩🇪Hagen, Germany
 2.6July 20, 2021
 0.5 l can from local 'Aldi', brewed in the Netherlands, best before January 2022. Clear, golden with a medium large, frothy, slowly diminishing, white head. Sweetish, a little sourish,…
@@ -988,7 +988,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>biir(3,312)
+          <t>biir(3,319)
 🇩🇪Hamburg, Germany
 2.3June 4, 2021
 Bottle from Edeka in Barmbek - straight out the supermarket fridge on a hot day, on road to the final playoff kiel against cologne. slim, sweet, some cactus and lime notes. artificial.…
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,139)
 🇲🇾Kuala Lumpur, Malaysia
 2.9April 28, 2021
 330ml bottle at Well Craft, Sri Hartamas, Kuala Lumpur. Poured a clear golden colour with a mostly lasting frothy white head. The aroma is simply lime. The flavour is moderate sweet, with…
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lithilorn(568)
+          <t>lithilorn(570)
 🇵🇹Covilhã, Portugal
 2.2November 16, 2020
 Pale golden body and white head. Sweet lime, some tequila and grass aroma. Sweet taste of lime and cactus. Medium body and carbonation. An average beer.
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Michcio(2,090)
+          <t>Michcio(2,096)
 🇵🇱Gdansk, Poland
 2.4August 8, 2020
 Barwa złota, lekko zamglone, piana biała, średnio obfita, średnio trwała. W aromacie lekki szampon, lekka limonka. W smaku dosyć słodkie, kwasek cytrynowy, sztuczna limonka.…
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>caketm(4,444)
+          <t>caketm(4,453)
 🇵🇱Czestochowa, Poland
 2.7August 2, 2020
 Butelka 0,5 litra, zakupiona w Delikatesach Centrum. Barwa złota, klarowna. Niska i mało trwała, biała piana. Słaby aromat, odrobinę limonkowy. W smaku nie wiele, ale lepiej. Lekko…
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Biroholik(4,446)
+          <t>Biroholik(4,453)
 🇵🇱Sosnowiec, Poland, Poland
 3.0June 30, 2020
 Biroholik
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dekris(1,357)
+          <t>dekris(1,361)
 🇵🇱Olkusz, Poland
 0.6March 29, 2020
 Wygląd soku jabłkowego, piany nawet szczatkowej nie ma. Aromatu nie ma. W smaku wodniste, dla mnie wyczuwalna gruszka??
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Borup(22,599)
+          <t>Borup(22,600)
 🇩🇰Albertslund, Denmark
 2.5July 18, 2018
 33 cl. bottle. A hazy golden coloured beer with a white head. Aroma and flavour of tequila, malt and lime.
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kleg(2,367)
+          <t>Kleg(2,371)
 🇺🇸The Beach, United States
 3.2September 1, 2017
 Bottle from Saint Martin. Pale gold pour with a large white head and good retention. Fair lacing. Lime nose. Soda mouthfeel. Tastes like a lime soda. Light &amp; refreshing, but not beer. More…
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Rubin77(7,796)
+          <t>Rubin77(7,803)
 🇧🇪Brussels, Belgium
 2.1December 28, 2015
 F: white, average, not long lasting.
@@ -2953,7 +2953,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>olio(14,751)
+          <t>olio(14,760)
 🇫🇮Tampere, Finland
 1.8August 24, 2012
 65 cl bottle @ vPBF.…
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tiong(14,759)
+          <t>tiong(14,768)
 🇫🇮Espoo, Finland
 1.6August 24, 2012
 660ml bottle @ vPBF
@@ -3372,7 +3372,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>jaghana(7,691)
+          <t>jaghana(7,692)
 🇫🇷Strasbourg (Alsace), France
 2.5July 23, 2010
 Can 50cl, yellow beer with low head. Smell is difficult to describe, nothing usual. This stuff is not really bad at all but far from beers, it’s more a soda like Schweppes, the only thing for…
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ungstrup(48,901)
+          <t>Ungstrup(48,915)
 🇩🇰Citizen of the universe, Denmark
 1.7March 8, 2010
 Bottled. A light golden beer with a thin beige head. The aroma has notes of lime, guava, and tequila. The flavor is sweet with notes of tequila, guava, and alcohol. The body is light. Thanks…
@@ -3583,7 +3583,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fonefan(70,891)
+          <t>fonefan(70,960)
 🇩🇰VestJylland, Denmark
 2.5March 1, 2010
 Can 500ml. @ home.
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Marko(14,001)
+          <t>Marko(14,025)
 🇨🇿Prague, Czech Republic
 2.5October 19, 2009
 A big bottle from a Carrefour, shared with heavy. Golden body, medium sized thick white head. Herbal lemon/lime nose. Herbal lemony taste, light, sweet, fruity and a bit tangy. Not all…
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DeanF(10,049)
+          <t>DeanF(10,067)
 🇨🇦New Westminster, Canada
 0.9April 12, 2020
 Re-rate about 11 years later. I couldn't remember if I had this version so picked it up at a random supermarket in Sint Maarten a few months ago and let it age gracefully in my wine…
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bhensonb(20,708)
+          <t>bhensonb(20,716)
 🇺🇸Woodland, United States
 2.1April 25, 2009
 Can from a Marais shop. Light gold color with a decent white head. Smells like lime and sweat.Thinnish, sweetish and limeish. Touch of Tequila seems present. Not exactly…
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wim(6,144)
+          <t>Wim(6,150)
 🇧🇪Weelde, Belgium
 1.4August 4, 2008
 gold blond coloured sparkling body with a white head a fruity malty aroma a malty fruity wattery taste with a fruity little bitter finish
@@ -4422,7 +4422,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Yves(4,439)
+          <t>Yves(4,440)
 🇧🇪Beerse, Belgium
 1.4August 3, 2008
 Clear yellow coloured beer with small white head. Few carbonation. Soda like aroma, sweet, lime. Wattery palate. Finish is sweet and bit sour. Crap beer.
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>shrubber85(14,083)
+          <t>shrubber85(14,086)
 🇺🇸Greenville, United States
 1.2March 8, 2008
 Can.  Lime and pineapple aroma - just a hint of tequila.   Golden yellow with moderate head.  Lime and pineapple flavor - moderately dry finish with the slightest hint of tequila.  No…
@@ -4631,7 +4631,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fiulijn(27,657)
+          <t>fiulijn(27,674)
 🇨🇦Vancouver, Canada
 1.8January 21, 2008
 Can
@@ -4772,7 +4772,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>omhper(35,540)
+          <t>omhper(35,615)
 🇸🇪Tyresö, Sweden
 1.1July 12, 2007
 Canned.  Clear golden, very fizzy head. Estery pineapple aroma. Sweet and candy-like, clean thin abd fruity. The most artificial tasting drink in the history of beverage production!
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SilkTork(7,345)
+          <t>SilkTork(7,347)
 🇬🇧Southampton, United Kingdom, England
 2.2November 23, 2006
 Lime flavours - slightly chemical. Fizzy. Light. Refreshing. Complete nonsense, but enjoyable enough.
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ogivlado(14,040)
+          <t>ogivlado(14,052)
 🇭🇷Zagreb, Croatia
 2.1October 10, 2006
 Canned(500ml). –Looks like beer and tastes like carbonated lime juice. Clear golden, fizzy white head, acidic lemon/lime nose. Slight sweet aroma of lime and lemon. Lower alcohol…
